--- a/biology/Zoologie/Aruattus_agostii/Aruattus_agostii.xlsx
+++ b/biology/Zoologie/Aruattus_agostii/Aruattus_agostii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aruattus agostii, unique représentant du genre Aruattus, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aruattus agostii, unique représentant du genre Aruattus, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Moluques en Indonésie[1]. Elle se rencontre dans les îles Aru et Kai[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Moluques en Indonésie. Elle se rencontre dans les îles Aru et Kai.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,10 mm de long sur 1,05 mm et l'abdomen 0,95 mm de long sur 0,70 mm et la carapace de la femelle paratype mesure 1,20 mm de long sur 1,10 mm et l'abdomen 1,15 mm de long sur 1,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,10 mm de long sur 1,05 mm et l'abdomen 0,95 mm de long sur 0,70 mm et la carapace de la femelle paratype mesure 1,20 mm de long sur 1,10 mm et l'abdomen 1,15 mm de long sur 1,00 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Donat Agosti[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Donat Agosti.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Logunov &amp; Azarkina, 2008 : Two new genera and species of Euophryinae (Aranei: Salticidae) from SE Asia. Arthropoda Selecta, vol. 17 no 1/2, p. 111-115 (texte intégral).</t>
         </is>
